--- a/DataTable/Common/UserDataTable.xlsx
+++ b/DataTable/Common/UserDataTable.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\1000Download\ProjectD\DataTable\Common\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\1000DownLoad\ProjectD\DataTable\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39CFF4D8-A7C9-4B1D-BD1E-959BF7EB1F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240"/>
   </bookViews>
   <sheets>
     <sheet name="LEVEL" sheetId="4" r:id="rId1"/>
@@ -25,24 +24,32 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="5">
   <si>
-    <t>MAX_ENERGY</t>
+    <t>;Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MAX_EXP</t>
+    <t>Exp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>;LEVEL</t>
+    <t>Memo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;메모</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FatiguePoint</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -365,31 +372,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
     <col min="5" max="6" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -399,8 +410,11 @@
       <c r="C2">
         <v>150</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -410,8 +424,11 @@
       <c r="C3">
         <v>160</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -421,8 +438,11 @@
       <c r="C4">
         <v>170</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -432,8 +452,11 @@
       <c r="C5">
         <v>180</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -443,8 +466,11 @@
       <c r="C6">
         <v>190</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -454,8 +480,11 @@
       <c r="C7">
         <v>200</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -465,8 +494,11 @@
       <c r="C8">
         <v>210</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -476,8 +508,11 @@
       <c r="C9">
         <v>220</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -487,8 +522,11 @@
       <c r="C10">
         <v>230</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -498,8 +536,11 @@
       <c r="C11">
         <v>240</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -509,8 +550,11 @@
       <c r="C12">
         <v>250</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -520,8 +564,11 @@
       <c r="C13">
         <v>260</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -531,8 +578,11 @@
       <c r="C14">
         <v>270</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -542,8 +592,11 @@
       <c r="C15">
         <v>280</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -553,8 +606,11 @@
       <c r="C16">
         <v>290</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -564,8 +620,11 @@
       <c r="C17">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -575,8 +634,11 @@
       <c r="C18">
         <v>310</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -586,8 +648,11 @@
       <c r="C19">
         <v>320</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -597,8 +662,11 @@
       <c r="C20">
         <v>330</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -608,8 +676,11 @@
       <c r="C21">
         <v>340</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -619,8 +690,11 @@
       <c r="C22">
         <v>350</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -630,8 +704,11 @@
       <c r="C23">
         <v>360</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -641,8 +718,11 @@
       <c r="C24">
         <v>370</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -652,8 +732,11 @@
       <c r="C25">
         <v>380</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -663,8 +746,11 @@
       <c r="C26">
         <v>390</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -674,8 +760,11 @@
       <c r="C27">
         <v>400</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -685,8 +774,11 @@
       <c r="C28">
         <v>410</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -696,8 +788,11 @@
       <c r="C29">
         <v>420</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -707,8 +802,11 @@
       <c r="C30">
         <v>430</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -718,8 +816,11 @@
       <c r="C31">
         <v>440</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D31" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -729,8 +830,11 @@
       <c r="C32">
         <v>450</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -740,8 +844,11 @@
       <c r="C33">
         <v>460</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -751,8 +858,11 @@
       <c r="C34">
         <v>470</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -762,8 +872,11 @@
       <c r="C35">
         <v>480</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -773,8 +886,11 @@
       <c r="C36">
         <v>490</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -784,8 +900,11 @@
       <c r="C37">
         <v>500</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -795,8 +914,11 @@
       <c r="C38">
         <v>510</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -806,8 +928,11 @@
       <c r="C39">
         <v>520</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D39" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -817,8 +942,11 @@
       <c r="C40">
         <v>530</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D40" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -828,8 +956,11 @@
       <c r="C41">
         <v>540</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -839,8 +970,11 @@
       <c r="C42">
         <v>550</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -850,8 +984,11 @@
       <c r="C43">
         <v>560</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D43" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -861,8 +998,11 @@
       <c r="C44">
         <v>570</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D44" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -872,8 +1012,11 @@
       <c r="C45">
         <v>580</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D45" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -883,8 +1026,11 @@
       <c r="C46">
         <v>590</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D46" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -894,8 +1040,11 @@
       <c r="C47">
         <v>600</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D47" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -905,8 +1054,11 @@
       <c r="C48">
         <v>610</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D48" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -916,8 +1068,11 @@
       <c r="C49">
         <v>620</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D49" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -927,8 +1082,11 @@
       <c r="C50">
         <v>630</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D50" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -937,6 +1095,9 @@
       </c>
       <c r="C51">
         <v>640</v>
+      </c>
+      <c r="D51" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
